--- a/scrum/Product Backlog.xlsx
+++ b/scrum/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Nodejs\todo\development-proccess\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE78D145-1AA4-45A8-8C8B-32809A124D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF0BB85-8A8A-4F4C-849E-348D09DF0A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C67EAF7E-16B0-4C7B-B19A-0F57AB1DB677}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>PRODUCT BACKBOG</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>A module to automation tests</t>
+  </si>
+  <si>
+    <t>Write testing code and add it to npm commands</t>
   </si>
 </sst>
 </file>
@@ -749,7 +755,7 @@
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -868,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,13 +898,31 @@
         <v>2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="14">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
